--- a/StructureDefinition-dk-core-cpr-identifier.xlsx
+++ b/StructureDefinition-dk-core-cpr-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Danish Core Central Person Register Extension</t>
+    <t>Danish Central Person Register (CPR) Identifier</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This structure holds the danish *Central Person Register* (CPR) identifier</t>
+    <t>This structure holds the danish [CPR](https://cpr.dk/) identifier</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -402,198 +402,13 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Identifier.type.id</t>
-  </si>
-  <si>
-    <t>Identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.system</t>
+    <t>Identifier.system</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>NNDNK</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -606,10 +421,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.208.176.1.2</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-cpr-identifier-system</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -1003,7 +818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1012,7 +827,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1036,13 +851,13 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -1718,7 +1533,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
@@ -1730,19 +1545,23 @@
         <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>76</v>
       </c>
@@ -1754,7 +1573,7 @@
         <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>76</v>
@@ -1766,13 +1585,11 @@
         <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>76</v>
@@ -1790,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
@@ -1802,32 +1619,32 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>76</v>
@@ -1836,19 +1653,19 @@
         <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1862,7 +1679,7 @@
         <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>76</v>
@@ -1871,7 +1688,7 @@
         <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>76</v>
@@ -1886,45 +1703,45 @@
         <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1935,7 +1752,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -1947,20 +1764,16 @@
         <v>104</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2008,13 +1821,13 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -2023,18 +1836,18 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2054,18 +1867,20 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2114,7 +1929,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2126,1210 +1941,16 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-dk-core-cpr-identifier.xlsx
+++ b/StructureDefinition-dk-core-cpr-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-dk-core-cpr-identifier.xlsx
+++ b/StructureDefinition-dk-core-cpr-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -421,10 +421,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>urn:oid:1.2.208.176.1.2</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-cpr-identifier-system</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -851,7 +851,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1567,13 +1567,13 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="R7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>76</v>
@@ -1585,11 +1585,13 @@
         <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>76</v>
